--- a/DummyDrugsDetails.xlsx
+++ b/DummyDrugsDetails.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A3ED23-EDE1-4B92-8AA5-1AADA261273F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4121DDAD-739A-43E7-80F3-2BE3DE1999AA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Drugs" sheetId="2" r:id="rId1"/>
+    <sheet name="formulas" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179021" calcOnSave="0"/>
   <extLst>
@@ -538,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,15 +667,15 @@
         <v>10.34</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I16" si="0">H3-H3*K3/100</f>
+        <f>H3-H3*K3/100</f>
         <v>9.9263999999999992</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J16" si="1">(D3*30+E3*50+F3*10+G3*10)/100</f>
+        <f>(D3*30+E3*50+F3*10+G3*10)/100</f>
         <v>5.7</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K16" si="2">IF(J3&lt;=2,0,IF(J3&lt;=3,1,IF(J3&lt;=4,2,IF(J3&lt;=5,3,IF(J3&lt;=6,4,IF(J3&lt;=7,5,IF(J3&lt;=8,5,IF(J3&lt;=9,6,10))) )))))</f>
+        <f>IF(J3&lt;=2,0,IF(J3&lt;=3,1,IF(J3&lt;=4,2,IF(J3&lt;=5,3,IF(J3&lt;=6,4,IF(J3&lt;=7,5,IF(J3&lt;=8,5,IF(J3&lt;=9,6,10))) )))))</f>
         <v>4</v>
       </c>
       <c r="L3" t="s">
@@ -707,15 +708,15 @@
         <v>545.9</v>
       </c>
       <c r="I4">
-        <f t="shared" si="0"/>
+        <f>H4-H4*K4/100</f>
         <v>518.60500000000002</v>
       </c>
       <c r="J4">
-        <f t="shared" si="1"/>
+        <f>(D4*30+E4*50+F4*10+G4*10)/100</f>
         <v>6.3</v>
       </c>
       <c r="K4">
-        <f t="shared" si="2"/>
+        <f>IF(J4&lt;=2,0,IF(J4&lt;=3,1,IF(J4&lt;=4,2,IF(J4&lt;=5,3,IF(J4&lt;=6,4,IF(J4&lt;=7,5,IF(J4&lt;=8,5,IF(J4&lt;=9,6,10))) )))))</f>
         <v>5</v>
       </c>
       <c r="M4" s="4" t="s">
@@ -748,15 +749,15 @@
         <v>1065.1099999999999</v>
       </c>
       <c r="I5">
-        <f t="shared" si="0"/>
+        <f>H5-H5*K5/100</f>
         <v>1054.4588999999999</v>
       </c>
       <c r="J5">
-        <f t="shared" si="1"/>
+        <f>(D5*30+E5*50+F5*10+G5*10)/100</f>
         <v>2.6</v>
       </c>
       <c r="K5">
-        <f t="shared" si="2"/>
+        <f>IF(J5&lt;=2,0,IF(J5&lt;=3,1,IF(J5&lt;=4,2,IF(J5&lt;=5,3,IF(J5&lt;=6,4,IF(J5&lt;=7,5,IF(J5&lt;=8,5,IF(J5&lt;=9,6,10))) )))))</f>
         <v>1</v>
       </c>
       <c r="M5" t="s">
@@ -789,15 +790,15 @@
         <v>889.22</v>
       </c>
       <c r="I6">
-        <f t="shared" si="0"/>
+        <f>H6-H6*K6/100</f>
         <v>871.43560000000002</v>
       </c>
       <c r="J6">
-        <f t="shared" si="1"/>
+        <f>(D6*30+E6*50+F6*10+G6*10)/100</f>
         <v>3.1</v>
       </c>
       <c r="K6">
-        <f t="shared" si="2"/>
+        <f>IF(J6&lt;=2,0,IF(J6&lt;=3,1,IF(J6&lt;=4,2,IF(J6&lt;=5,3,IF(J6&lt;=6,4,IF(J6&lt;=7,5,IF(J6&lt;=8,5,IF(J6&lt;=9,6,10))) )))))</f>
         <v>2</v>
       </c>
       <c r="M6" s="4" t="s">
@@ -830,15 +831,15 @@
         <v>610.52</v>
       </c>
       <c r="I7">
-        <f t="shared" si="0"/>
+        <f>H7-H7*K7/100</f>
         <v>592.20439999999996</v>
       </c>
       <c r="J7">
-        <f t="shared" si="1"/>
+        <f>(D7*30+E7*50+F7*10+G7*10)/100</f>
         <v>4.3</v>
       </c>
       <c r="K7">
-        <f t="shared" si="2"/>
+        <f>IF(J7&lt;=2,0,IF(J7&lt;=3,1,IF(J7&lt;=4,2,IF(J7&lt;=5,3,IF(J7&lt;=6,4,IF(J7&lt;=7,5,IF(J7&lt;=8,5,IF(J7&lt;=9,6,10))) )))))</f>
         <v>3</v>
       </c>
       <c r="M7" s="4" t="s">
@@ -871,7 +872,7 @@
         <v>8.6</v>
       </c>
       <c r="I8">
-        <f t="shared" si="0"/>
+        <f>H8-H8*K8/100</f>
         <v>8.3420000000000005</v>
       </c>
       <c r="J8">
@@ -879,7 +880,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="K8">
-        <f t="shared" si="2"/>
+        <f>IF(J8&lt;=2,0,IF(J8&lt;=3,1,IF(J8&lt;=4,2,IF(J8&lt;=5,3,IF(J8&lt;=6,4,IF(J8&lt;=7,5,IF(J8&lt;=8,5,IF(J8&lt;=9,6,10))) )))))</f>
         <v>3</v>
       </c>
       <c r="L8" s="4" t="s">
@@ -912,15 +913,15 @@
         <v>13.47</v>
       </c>
       <c r="I9">
-        <f t="shared" si="0"/>
+        <f>H9-H9*K9/100</f>
         <v>12.9312</v>
       </c>
       <c r="J9">
-        <f t="shared" si="1"/>
+        <f>(D9*30+E9*50+F9*10+G9*10)/100</f>
         <v>5.8</v>
       </c>
       <c r="K9">
-        <f t="shared" si="2"/>
+        <f>IF(J9&lt;=2,0,IF(J9&lt;=3,1,IF(J9&lt;=4,2,IF(J9&lt;=5,3,IF(J9&lt;=6,4,IF(J9&lt;=7,5,IF(J9&lt;=8,5,IF(J9&lt;=9,6,10))) )))))</f>
         <v>4</v>
       </c>
       <c r="M9" s="4" t="s">
@@ -953,15 +954,15 @@
         <v>23.93</v>
       </c>
       <c r="I10">
-        <f t="shared" si="0"/>
+        <f>H10-H10*K10/100</f>
         <v>22.972799999999999</v>
       </c>
       <c r="J10">
-        <f t="shared" si="1"/>
+        <f>(D10*30+E10*50+F10*10+G10*10)/100</f>
         <v>5.9</v>
       </c>
       <c r="K10">
-        <f t="shared" si="2"/>
+        <f>IF(J10&lt;=2,0,IF(J10&lt;=3,1,IF(J10&lt;=4,2,IF(J10&lt;=5,3,IF(J10&lt;=6,4,IF(J10&lt;=7,5,IF(J10&lt;=8,5,IF(J10&lt;=9,6,10))) )))))</f>
         <v>4</v>
       </c>
       <c r="M10" t="s">
@@ -994,15 +995,15 @@
         <v>79.5</v>
       </c>
       <c r="I11">
-        <f t="shared" si="0"/>
+        <f>H11-H11*K11/100</f>
         <v>78.704999999999998</v>
       </c>
       <c r="J11">
-        <f t="shared" si="1"/>
+        <f>(D11*30+E11*50+F11*10+G11*10)/100</f>
         <v>2.6</v>
       </c>
       <c r="K11">
-        <f t="shared" si="2"/>
+        <f>IF(J11&lt;=2,0,IF(J11&lt;=3,1,IF(J11&lt;=4,2,IF(J11&lt;=5,3,IF(J11&lt;=6,4,IF(J11&lt;=7,5,IF(J11&lt;=8,5,IF(J11&lt;=9,6,10))) )))))</f>
         <v>1</v>
       </c>
       <c r="M11" t="s">
@@ -1035,15 +1036,15 @@
         <v>41.01</v>
       </c>
       <c r="I12">
-        <f t="shared" si="0"/>
+        <f>H12-H12*K12/100</f>
         <v>39.779699999999998</v>
       </c>
       <c r="J12">
-        <f t="shared" si="1"/>
+        <f>(D12*30+E12*50+F12*10+G12*10)/100</f>
         <v>5</v>
       </c>
       <c r="K12">
-        <f t="shared" si="2"/>
+        <f>IF(J12&lt;=2,0,IF(J12&lt;=3,1,IF(J12&lt;=4,2,IF(J12&lt;=5,3,IF(J12&lt;=6,4,IF(J12&lt;=7,5,IF(J12&lt;=8,5,IF(J12&lt;=9,6,10))) )))))</f>
         <v>3</v>
       </c>
       <c r="M12" s="4" t="s">
@@ -1076,15 +1077,15 @@
         <v>136.47999999999999</v>
       </c>
       <c r="I13">
-        <f t="shared" si="0"/>
+        <f>H13-H13*K13/100</f>
         <v>131.02079999999998</v>
       </c>
       <c r="J13">
-        <f t="shared" si="1"/>
+        <f>(D13*30+E13*50+F13*10+G13*10)/100</f>
         <v>5.6</v>
       </c>
       <c r="K13">
-        <f t="shared" si="2"/>
+        <f>IF(J13&lt;=2,0,IF(J13&lt;=3,1,IF(J13&lt;=4,2,IF(J13&lt;=5,3,IF(J13&lt;=6,4,IF(J13&lt;=7,5,IF(J13&lt;=8,5,IF(J13&lt;=9,6,10))) )))))</f>
         <v>4</v>
       </c>
       <c r="M13" s="4" t="s">
@@ -1117,15 +1118,15 @@
         <v>59.9</v>
       </c>
       <c r="I14">
-        <f t="shared" si="0"/>
+        <f>H14-H14*K14/100</f>
         <v>57.503999999999998</v>
       </c>
       <c r="J14">
-        <f t="shared" si="1"/>
+        <f>(D14*30+E14*50+F14*10+G14*10)/100</f>
         <v>5.2</v>
       </c>
       <c r="K14">
-        <f t="shared" si="2"/>
+        <f>IF(J14&lt;=2,0,IF(J14&lt;=3,1,IF(J14&lt;=4,2,IF(J14&lt;=5,3,IF(J14&lt;=6,4,IF(J14&lt;=7,5,IF(J14&lt;=8,5,IF(J14&lt;=9,6,10))) )))))</f>
         <v>4</v>
       </c>
       <c r="M14" s="4" t="s">
@@ -1158,15 +1159,15 @@
         <v>85.72</v>
       </c>
       <c r="I15">
-        <f t="shared" si="0"/>
+        <f>H15-H15*K15/100</f>
         <v>82.291200000000003</v>
       </c>
       <c r="J15">
-        <f t="shared" si="1"/>
+        <f>(D15*30+E15*50+F15*10+G15*10)/100</f>
         <v>6</v>
       </c>
       <c r="K15">
-        <f t="shared" si="2"/>
+        <f>IF(J15&lt;=2,0,IF(J15&lt;=3,1,IF(J15&lt;=4,2,IF(J15&lt;=5,3,IF(J15&lt;=6,4,IF(J15&lt;=7,5,IF(J15&lt;=8,5,IF(J15&lt;=9,6,10))) )))))</f>
         <v>4</v>
       </c>
       <c r="M15" t="s">
@@ -1199,118 +1200,19 @@
         <v>24.49</v>
       </c>
       <c r="I16">
-        <f t="shared" si="0"/>
+        <f>H16-H16*K16/100</f>
         <v>23.265499999999999</v>
       </c>
       <c r="J16">
-        <f t="shared" si="1"/>
+        <f>(D16*30+E16*50+F16*10+G16*10)/100</f>
         <v>6.4</v>
       </c>
       <c r="K16">
-        <f t="shared" si="2"/>
+        <f>IF(J16&lt;=2,0,IF(J16&lt;=3,1,IF(J16&lt;=4,2,IF(J16&lt;=5,3,IF(J16&lt;=6,4,IF(J16&lt;=7,5,IF(J16&lt;=8,5,IF(J16&lt;=9,6,10))) )))))</f>
         <v>5</v>
       </c>
       <c r="M16" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="E22" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D23">
-        <v>3</v>
-      </c>
-      <c r="E23" s="5">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D24">
-        <v>4</v>
-      </c>
-      <c r="E24" s="5">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D25">
-        <v>5</v>
-      </c>
-      <c r="E25" s="5">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D26">
-        <v>6</v>
-      </c>
-      <c r="E26" s="5">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D27">
-        <v>7</v>
-      </c>
-      <c r="E27" s="5">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D28">
-        <v>8</v>
-      </c>
-      <c r="E28" s="5">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D29">
-        <v>9</v>
-      </c>
-      <c r="E29" s="5">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D30">
-        <v>10</v>
-      </c>
-      <c r="E30" s="5">
-        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -1324,4 +1226,121 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5CEF9FC-157A-4470-8461-288AB6249C7B}">
+  <dimension ref="C2:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>9</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>